--- a/MesAdmin/Template/A1/工艺路线.xlsx
+++ b/MesAdmin/Template/A1/工艺路线.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,69 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="13">
+  <si>
+    <t>机型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装配顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否免检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互锁标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否装配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH8003E</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +79,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +109,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +228,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +436,2673 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A132"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>110</v>
+      </c>
+      <c r="D12">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>130</v>
+      </c>
+      <c r="D14">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>140</v>
+      </c>
+      <c r="D15">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>160</v>
+      </c>
+      <c r="D17">
+        <v>160</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>170</v>
+      </c>
+      <c r="D18">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>180</v>
+      </c>
+      <c r="D19">
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>190</v>
+      </c>
+      <c r="D20">
+        <v>190</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>210</v>
+      </c>
+      <c r="D22">
+        <v>210</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>220</v>
+      </c>
+      <c r="D23">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>230</v>
+      </c>
+      <c r="D24">
+        <v>230</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>240</v>
+      </c>
+      <c r="D25">
+        <v>240</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>250</v>
+      </c>
+      <c r="D26">
+        <v>250</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>260</v>
+      </c>
+      <c r="D27">
+        <v>260</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>270</v>
+      </c>
+      <c r="D28">
+        <v>270</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>280</v>
+      </c>
+      <c r="D29">
+        <v>280</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>290</v>
+      </c>
+      <c r="D30">
+        <v>290</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>300</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>310</v>
+      </c>
+      <c r="D32">
+        <v>310</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>320</v>
+      </c>
+      <c r="D33">
+        <v>320</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>330</v>
+      </c>
+      <c r="D34">
+        <v>330</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>340</v>
+      </c>
+      <c r="D35">
+        <v>340</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>350</v>
+      </c>
+      <c r="D36">
+        <v>350</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>360</v>
+      </c>
+      <c r="D37">
+        <v>360</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>370</v>
+      </c>
+      <c r="D38">
+        <v>370</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>380</v>
+      </c>
+      <c r="D39">
+        <v>380</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>390</v>
+      </c>
+      <c r="D40">
+        <v>390</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>400</v>
+      </c>
+      <c r="D41">
+        <v>400</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>410</v>
+      </c>
+      <c r="D42">
+        <v>410</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>420</v>
+      </c>
+      <c r="D43">
+        <v>420</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>430</v>
+      </c>
+      <c r="D44">
+        <v>430</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>440</v>
+      </c>
+      <c r="D45">
+        <v>440</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>450</v>
+      </c>
+      <c r="D46">
+        <v>450</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>460</v>
+      </c>
+      <c r="D47">
+        <v>460</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>470</v>
+      </c>
+      <c r="D48">
+        <v>470</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>480</v>
+      </c>
+      <c r="D49">
+        <v>480</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>490</v>
+      </c>
+      <c r="D50">
+        <v>490</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>500</v>
+      </c>
+      <c r="D51">
+        <v>500</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>510</v>
+      </c>
+      <c r="D52">
+        <v>510</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>520</v>
+      </c>
+      <c r="D53">
+        <v>520</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>530</v>
+      </c>
+      <c r="D54">
+        <v>530</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>540</v>
+      </c>
+      <c r="D55">
+        <v>540</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>550</v>
+      </c>
+      <c r="D56">
+        <v>550</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>560</v>
+      </c>
+      <c r="D57">
+        <v>560</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>570</v>
+      </c>
+      <c r="D58">
+        <v>570</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>580</v>
+      </c>
+      <c r="D59">
+        <v>580</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>590</v>
+      </c>
+      <c r="D60">
+        <v>590</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>600</v>
+      </c>
+      <c r="D61">
+        <v>600</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>610</v>
+      </c>
+      <c r="D62">
+        <v>610</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>620</v>
+      </c>
+      <c r="D63">
+        <v>620</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>630</v>
+      </c>
+      <c r="D64">
+        <v>630</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>640</v>
+      </c>
+      <c r="D65">
+        <v>640</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>650</v>
+      </c>
+      <c r="D66">
+        <v>650</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>660</v>
+      </c>
+      <c r="D67">
+        <v>660</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>670</v>
+      </c>
+      <c r="D68">
+        <v>670</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>680</v>
+      </c>
+      <c r="D69">
+        <v>680</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>690</v>
+      </c>
+      <c r="D70">
+        <v>690</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>700</v>
+      </c>
+      <c r="D71">
+        <v>700</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>710</v>
+      </c>
+      <c r="D72">
+        <v>710</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>720</v>
+      </c>
+      <c r="D73">
+        <v>720</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>730</v>
+      </c>
+      <c r="D74">
+        <v>730</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>740</v>
+      </c>
+      <c r="D75">
+        <v>740</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>750</v>
+      </c>
+      <c r="D76">
+        <v>750</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>760</v>
+      </c>
+      <c r="D77">
+        <v>760</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>770</v>
+      </c>
+      <c r="D78">
+        <v>770</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>780</v>
+      </c>
+      <c r="D79">
+        <v>780</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>790</v>
+      </c>
+      <c r="D80">
+        <v>790</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>800</v>
+      </c>
+      <c r="D81">
+        <v>800</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>810</v>
+      </c>
+      <c r="D82">
+        <v>810</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>820</v>
+      </c>
+      <c r="D83">
+        <v>820</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>830</v>
+      </c>
+      <c r="D84">
+        <v>830</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>840</v>
+      </c>
+      <c r="D85">
+        <v>840</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>850</v>
+      </c>
+      <c r="D86">
+        <v>850</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>860</v>
+      </c>
+      <c r="D87">
+        <v>860</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>870</v>
+      </c>
+      <c r="D88">
+        <v>870</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>880</v>
+      </c>
+      <c r="D89">
+        <v>880</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>890</v>
+      </c>
+      <c r="D90">
+        <v>890</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>900</v>
+      </c>
+      <c r="D91">
+        <v>900</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>910</v>
+      </c>
+      <c r="D92">
+        <v>910</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>920</v>
+      </c>
+      <c r="D93">
+        <v>920</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>930</v>
+      </c>
+      <c r="D94">
+        <v>930</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>940</v>
+      </c>
+      <c r="D95">
+        <v>940</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>950</v>
+      </c>
+      <c r="D96">
+        <v>950</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>960</v>
+      </c>
+      <c r="D97">
+        <v>960</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>970</v>
+      </c>
+      <c r="D98">
+        <v>970</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>980</v>
+      </c>
+      <c r="D99">
+        <v>980</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <v>990</v>
+      </c>
+      <c r="D100">
+        <v>990</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>1000</v>
+      </c>
+      <c r="D101">
+        <v>1000</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>1010</v>
+      </c>
+      <c r="D102">
+        <v>1010</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>1020</v>
+      </c>
+      <c r="D103">
+        <v>1020</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>1030</v>
+      </c>
+      <c r="D104">
+        <v>1030</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>1040</v>
+      </c>
+      <c r="D105">
+        <v>1040</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>1050</v>
+      </c>
+      <c r="D106">
+        <v>1050</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>1060</v>
+      </c>
+      <c r="D107">
+        <v>1060</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108">
+        <v>1070</v>
+      </c>
+      <c r="D108">
+        <v>1070</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>1080</v>
+      </c>
+      <c r="D109">
+        <v>1080</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>1090</v>
+      </c>
+      <c r="D110">
+        <v>1090</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>1100</v>
+      </c>
+      <c r="D111">
+        <v>1100</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>1110</v>
+      </c>
+      <c r="D112">
+        <v>1110</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>1120</v>
+      </c>
+      <c r="D113">
+        <v>1120</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>1130</v>
+      </c>
+      <c r="D114">
+        <v>1130</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>1140</v>
+      </c>
+      <c r="D115">
+        <v>1140</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>1150</v>
+      </c>
+      <c r="D116">
+        <v>1150</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>1160</v>
+      </c>
+      <c r="D117">
+        <v>1160</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>1170</v>
+      </c>
+      <c r="D118">
+        <v>1170</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>1180</v>
+      </c>
+      <c r="D119">
+        <v>1180</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>1190</v>
+      </c>
+      <c r="D120">
+        <v>1190</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>1200</v>
+      </c>
+      <c r="D121">
+        <v>1200</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>1210</v>
+      </c>
+      <c r="D122">
+        <v>1210</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123">
+        <v>1220</v>
+      </c>
+      <c r="D123">
+        <v>1220</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>1230</v>
+      </c>
+      <c r="D124">
+        <v>1230</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125">
+        <v>1240</v>
+      </c>
+      <c r="D125">
+        <v>1240</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>1250</v>
+      </c>
+      <c r="D126">
+        <v>1250</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127">
+        <v>1260</v>
+      </c>
+      <c r="D127">
+        <v>1260</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128">
+        <v>1270</v>
+      </c>
+      <c r="D128">
+        <v>1270</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129">
+        <v>1280</v>
+      </c>
+      <c r="D129">
+        <v>1280</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130">
+        <v>1290</v>
+      </c>
+      <c r="D130">
+        <v>1290</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131">
+        <v>1300</v>
+      </c>
+      <c r="D131">
+        <v>1300</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132">
+        <v>1310</v>
+      </c>
+      <c r="D132">
+        <v>1310</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>